--- a/20180212-housing/builds/development/data/maindata.xlsx
+++ b/20180212-housing/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="400" windowWidth="29080" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="2960" yWindow="400" windowWidth="29080" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="listings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="578">
   <si>
     <t>GEOID</t>
   </si>
@@ -1754,6 +1754,9 @@
   </si>
   <si>
     <t>Difference in average days on market between 2016 and 2017</t>
+  </si>
+  <si>
+    <t>Minnetonka, MN</t>
   </si>
 </sst>
 </file>
@@ -2520,13 +2523,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW104"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.83203125" style="4"/>
     <col min="13" max="13" width="10.83203125" style="3"/>
     <col min="14" max="28" width="10.83203125" style="4"/>
@@ -11102,7 +11107,7 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>577</v>
       </c>
       <c r="E58" t="s">
         <v>178</v>
@@ -11111,10 +11116,10 @@
         <v>313</v>
       </c>
       <c r="G58">
-        <v>44.940761566162102</v>
+        <v>44.921183999999997</v>
       </c>
       <c r="H58">
-        <v>-93.597137451171903</v>
+        <v>-93.468749000000003</v>
       </c>
       <c r="I58" t="s">
         <v>396</v>
@@ -17192,7 +17197,7 @@
         <v>53</v>
       </c>
       <c r="AH98">
-        <f t="shared" ref="AH98:AH129" si="3">AG98-AF98</f>
+        <f t="shared" ref="AH98:AH104" si="3">AG98-AF98</f>
         <v>-11</v>
       </c>
       <c r="AI98" s="3">
@@ -18207,7 +18212,7 @@
         <v>29</v>
       </c>
       <c r="F2">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F33" si="0">E2-D2</f>
         <v>-11</v>
       </c>
       <c r="I2" s="2"/>
@@ -18229,7 +18234,7 @@
         <v>37</v>
       </c>
       <c r="F3">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="I3" s="2"/>
@@ -18251,7 +18256,7 @@
         <v>43</v>
       </c>
       <c r="F4">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="I4" s="2"/>
@@ -18273,7 +18278,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="I5" s="2"/>
@@ -18295,7 +18300,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="I6" s="2"/>
@@ -18317,7 +18322,7 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>-21</v>
       </c>
       <c r="I7" s="2"/>
@@ -18339,7 +18344,7 @@
         <v>37</v>
       </c>
       <c r="F8">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="I8" s="2"/>
@@ -18361,7 +18366,7 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>-16</v>
       </c>
       <c r="I9" s="2"/>
@@ -18383,7 +18388,7 @@
         <v>65</v>
       </c>
       <c r="F10">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>-16</v>
       </c>
       <c r="I10" s="2"/>
@@ -18405,7 +18410,7 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="I11" s="2"/>
@@ -18427,7 +18432,7 @@
         <v>42</v>
       </c>
       <c r="F12">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>-14</v>
       </c>
       <c r="I12" s="2"/>
@@ -18449,7 +18454,7 @@
         <v>42</v>
       </c>
       <c r="F13">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="I13" s="2"/>
@@ -18471,7 +18476,7 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="I14" s="2"/>
@@ -18493,7 +18498,7 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="I15" s="2"/>
@@ -18515,7 +18520,7 @@
         <v>45</v>
       </c>
       <c r="F16">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="I16" s="2"/>
@@ -18537,7 +18542,7 @@
         <v>43</v>
       </c>
       <c r="F17">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="I17" s="2"/>
@@ -18559,7 +18564,7 @@
         <v>47</v>
       </c>
       <c r="F18">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="I18" s="2"/>
@@ -18581,7 +18586,7 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>-9</v>
       </c>
       <c r="I19" s="2"/>
@@ -18603,7 +18608,7 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>-12</v>
       </c>
       <c r="I20" s="2"/>
@@ -18625,7 +18630,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="I21" s="2"/>
@@ -18647,7 +18652,7 @@
         <v>41</v>
       </c>
       <c r="F22">
-        <f>E22-D22</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="I22" s="2"/>
@@ -18669,7 +18674,7 @@
         <v>45</v>
       </c>
       <c r="F23">
-        <f>E23-D23</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="I23" s="2"/>
@@ -18691,7 +18696,7 @@
         <v>38</v>
       </c>
       <c r="F24">
-        <f>E24-D24</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="I24" s="2"/>
@@ -18713,7 +18718,7 @@
         <v>43</v>
       </c>
       <c r="F25">
-        <f>E25-D25</f>
+        <f t="shared" si="0"/>
         <v>-20</v>
       </c>
       <c r="I25" s="2"/>
@@ -18735,7 +18740,7 @@
         <v>49</v>
       </c>
       <c r="F26">
-        <f>E26-D26</f>
+        <f t="shared" si="0"/>
         <v>-10</v>
       </c>
       <c r="I26" s="2"/>
@@ -18757,7 +18762,7 @@
         <v>41</v>
       </c>
       <c r="F27">
-        <f>E27-D27</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="I27" s="2"/>
@@ -18779,7 +18784,7 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <f>E28-D28</f>
+        <f t="shared" si="0"/>
         <v>-15</v>
       </c>
       <c r="I28" s="2"/>
@@ -18801,7 +18806,7 @@
         <v>72</v>
       </c>
       <c r="F29">
-        <f>E29-D29</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I29" s="2"/>
@@ -18823,7 +18828,7 @@
         <v>49</v>
       </c>
       <c r="F30">
-        <f>E30-D30</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="I30" s="2"/>
@@ -18845,7 +18850,7 @@
         <v>44</v>
       </c>
       <c r="F31">
-        <f>E31-D31</f>
+        <f t="shared" si="0"/>
         <v>-11</v>
       </c>
       <c r="I31" s="2"/>
@@ -18867,7 +18872,7 @@
         <v>46</v>
       </c>
       <c r="F32">
-        <f>E32-D32</f>
+        <f t="shared" si="0"/>
         <v>-4</v>
       </c>
       <c r="I32" s="2"/>
@@ -18889,7 +18894,7 @@
         <v>55</v>
       </c>
       <c r="F33">
-        <f>E33-D33</f>
+        <f t="shared" si="0"/>
         <v>-24</v>
       </c>
       <c r="I33" s="2"/>
@@ -18911,7 +18916,7 @@
         <v>52</v>
       </c>
       <c r="F34">
-        <f>E34-D34</f>
+        <f t="shared" ref="F34:F65" si="1">E34-D34</f>
         <v>-13</v>
       </c>
       <c r="I34" s="2"/>
@@ -18933,7 +18938,7 @@
         <v>45</v>
       </c>
       <c r="F35">
-        <f>E35-D35</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="I35" s="2"/>
@@ -18955,7 +18960,7 @@
         <v>43</v>
       </c>
       <c r="F36">
-        <f>E36-D36</f>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
       <c r="I36" s="2"/>
@@ -18977,7 +18982,7 @@
         <v>45</v>
       </c>
       <c r="F37">
-        <f>E37-D37</f>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
       <c r="I37" s="2"/>
@@ -18999,7 +19004,7 @@
         <v>82</v>
       </c>
       <c r="F38">
-        <f>E38-D38</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="I38" s="2"/>
@@ -19021,7 +19026,7 @@
         <v>51</v>
       </c>
       <c r="F39">
-        <f>E39-D39</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="I39" s="2"/>
@@ -19043,7 +19048,7 @@
         <v>50</v>
       </c>
       <c r="F40">
-        <f>E40-D40</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="I40" s="2"/>
@@ -19065,7 +19070,7 @@
         <v>56</v>
       </c>
       <c r="F41">
-        <f>E41-D41</f>
+        <f t="shared" si="1"/>
         <v>-25</v>
       </c>
       <c r="I41" s="2"/>
@@ -19087,7 +19092,7 @@
         <v>51</v>
       </c>
       <c r="F42">
-        <f>E42-D42</f>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
       <c r="I42" s="2"/>
@@ -19109,7 +19114,7 @@
         <v>46</v>
       </c>
       <c r="F43">
-        <f>E43-D43</f>
+        <f t="shared" si="1"/>
         <v>-10</v>
       </c>
       <c r="I43" s="2"/>
@@ -19131,7 +19136,7 @@
         <v>63</v>
       </c>
       <c r="F44">
-        <f>E44-D44</f>
+        <f t="shared" si="1"/>
         <v>-8</v>
       </c>
       <c r="I44" s="2"/>
@@ -19153,7 +19158,7 @@
         <v>49</v>
       </c>
       <c r="F45">
-        <f>E45-D45</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="I45" s="2"/>
@@ -19175,7 +19180,7 @@
         <v>50</v>
       </c>
       <c r="F46">
-        <f>E46-D46</f>
+        <f t="shared" si="1"/>
         <v>-6</v>
       </c>
       <c r="I46" s="2"/>
@@ -19197,7 +19202,7 @@
         <v>53</v>
       </c>
       <c r="F47">
-        <f>E47-D47</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="I47" s="2"/>
@@ -19219,7 +19224,7 @@
         <v>49</v>
       </c>
       <c r="F48">
-        <f>E48-D48</f>
+        <f t="shared" si="1"/>
         <v>-13</v>
       </c>
       <c r="I48" s="2"/>
@@ -19241,7 +19246,7 @@
         <v>46</v>
       </c>
       <c r="F49">
-        <f>E49-D49</f>
+        <f t="shared" si="1"/>
         <v>-15</v>
       </c>
       <c r="I49" s="2"/>
@@ -19263,7 +19268,7 @@
         <v>47</v>
       </c>
       <c r="F50">
-        <f>E50-D50</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="I50" s="2"/>
@@ -19285,7 +19290,7 @@
         <v>43</v>
       </c>
       <c r="F51">
-        <f>E51-D51</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="I51" s="2"/>
@@ -19307,7 +19312,7 @@
         <v>43</v>
       </c>
       <c r="F52">
-        <f>E52-D52</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="I52" s="2"/>
@@ -19329,7 +19334,7 @@
         <v>47</v>
       </c>
       <c r="F53">
-        <f>E53-D53</f>
+        <f t="shared" si="1"/>
         <v>-12</v>
       </c>
       <c r="I53" s="2"/>
@@ -19351,7 +19356,7 @@
         <v>144</v>
       </c>
       <c r="F54">
-        <f>E54-D54</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I54" s="2"/>
@@ -19373,7 +19378,7 @@
         <v>56</v>
       </c>
       <c r="F55">
-        <f>E55-D55</f>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
       <c r="I55" s="2"/>
@@ -19395,7 +19400,7 @@
         <v>52</v>
       </c>
       <c r="F56">
-        <f>E56-D56</f>
+        <f t="shared" si="1"/>
         <v>-11</v>
       </c>
       <c r="I56" s="2"/>
@@ -19417,7 +19422,7 @@
         <v>52</v>
       </c>
       <c r="F57">
-        <f>E57-D57</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="I57" s="2"/>
@@ -19439,7 +19444,7 @@
         <v>46</v>
       </c>
       <c r="F58">
-        <f>E58-D58</f>
+        <f t="shared" si="1"/>
         <v>-16</v>
       </c>
       <c r="I58" s="2"/>
@@ -19461,7 +19466,7 @@
         <v>76</v>
       </c>
       <c r="F59">
-        <f>E59-D59</f>
+        <f t="shared" si="1"/>
         <v>-17</v>
       </c>
       <c r="I59" s="2"/>
@@ -19483,7 +19488,7 @@
         <v>61</v>
       </c>
       <c r="F60">
-        <f>E60-D60</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I60" s="2"/>
@@ -19505,7 +19510,7 @@
         <v>54</v>
       </c>
       <c r="F61">
-        <f>E61-D61</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="I61" s="2"/>
@@ -19527,7 +19532,7 @@
         <v>44</v>
       </c>
       <c r="F62">
-        <f>E62-D62</f>
+        <f t="shared" si="1"/>
         <v>-17</v>
       </c>
       <c r="I62" s="2"/>
@@ -19549,7 +19554,7 @@
         <v>89</v>
       </c>
       <c r="F63">
-        <f>E63-D63</f>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
       <c r="I63" s="2"/>
@@ -19571,7 +19576,7 @@
         <v>74</v>
       </c>
       <c r="F64">
-        <f>E64-D64</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="I64" s="2"/>
@@ -19593,7 +19598,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <f>E65-D65</f>
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="I65" s="2"/>
@@ -19615,7 +19620,7 @@
         <v>59</v>
       </c>
       <c r="F66">
-        <f>E66-D66</f>
+        <f t="shared" ref="F66:F97" si="2">E66-D66</f>
         <v>-1</v>
       </c>
       <c r="I66" s="2"/>
@@ -19637,7 +19642,7 @@
         <v>62</v>
       </c>
       <c r="F67">
-        <f>E67-D67</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I67" s="2"/>
@@ -19659,7 +19664,7 @@
         <v>55</v>
       </c>
       <c r="F68">
-        <f>E68-D68</f>
+        <f t="shared" si="2"/>
         <v>-13</v>
       </c>
       <c r="I68" s="2"/>
@@ -19681,7 +19686,7 @@
         <v>59</v>
       </c>
       <c r="F69">
-        <f>E69-D69</f>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="I69" s="2"/>
@@ -19703,7 +19708,7 @@
         <v>55</v>
       </c>
       <c r="F70">
-        <f>E70-D70</f>
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
       <c r="I70" s="2"/>
@@ -19725,7 +19730,7 @@
         <v>61</v>
       </c>
       <c r="F71">
-        <f>E71-D71</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I71" s="2"/>
@@ -19747,7 +19752,7 @@
         <v>41</v>
       </c>
       <c r="F72">
-        <f>E72-D72</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="I72" s="2"/>
@@ -19769,7 +19774,7 @@
         <v>76</v>
       </c>
       <c r="F73">
-        <f>E73-D73</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I73" s="2"/>
@@ -19791,7 +19796,7 @@
         <v>58</v>
       </c>
       <c r="F74">
-        <f>E74-D74</f>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="I74" s="2"/>
@@ -19813,7 +19818,7 @@
         <v>56</v>
       </c>
       <c r="F75">
-        <f>E75-D75</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="I75" s="2"/>
@@ -19835,7 +19840,7 @@
         <v>94</v>
       </c>
       <c r="F76">
-        <f>E76-D76</f>
+        <f t="shared" si="2"/>
         <v>-25</v>
       </c>
       <c r="I76" s="2"/>
@@ -19857,7 +19862,7 @@
         <v>88</v>
       </c>
       <c r="F77">
-        <f>E77-D77</f>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="I77" s="2"/>
@@ -19879,7 +19884,7 @@
         <v>70</v>
       </c>
       <c r="F78">
-        <f>E78-D78</f>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="I78" s="2"/>
@@ -19901,7 +19906,7 @@
         <v>56</v>
       </c>
       <c r="F79">
-        <f>E79-D79</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="I79" s="2"/>
@@ -19923,7 +19928,7 @@
         <v>59</v>
       </c>
       <c r="F80">
-        <f>E80-D80</f>
+        <f t="shared" si="2"/>
         <v>-19</v>
       </c>
       <c r="I80" s="2"/>
@@ -19945,7 +19950,7 @@
         <v>94</v>
       </c>
       <c r="F81">
-        <f>E81-D81</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="I81" s="2"/>
@@ -19967,7 +19972,7 @@
         <v>70</v>
       </c>
       <c r="F82">
-        <f>E82-D82</f>
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
       <c r="I82" s="2"/>
@@ -19989,7 +19994,7 @@
         <v>87</v>
       </c>
       <c r="F83">
-        <f>E83-D83</f>
+        <f t="shared" si="2"/>
         <v>-24</v>
       </c>
       <c r="I83" s="2"/>
@@ -20011,7 +20016,7 @@
         <v>60</v>
       </c>
       <c r="F84">
-        <f>E84-D84</f>
+        <f t="shared" si="2"/>
         <v>-9</v>
       </c>
       <c r="I84" s="2"/>
@@ -20033,7 +20038,7 @@
         <v>88</v>
       </c>
       <c r="F85">
-        <f>E85-D85</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I85" s="2"/>
@@ -20055,7 +20060,7 @@
         <v>75</v>
       </c>
       <c r="F86">
-        <f>E86-D86</f>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="I86" s="2"/>
@@ -20077,7 +20082,7 @@
         <v>74</v>
       </c>
       <c r="F87">
-        <f>E87-D87</f>
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
       <c r="I87" s="2"/>
@@ -20099,7 +20104,7 @@
         <v>77</v>
       </c>
       <c r="F88">
-        <f>E88-D88</f>
+        <f t="shared" si="2"/>
         <v>-19</v>
       </c>
       <c r="I88" s="2"/>
@@ -20121,7 +20126,7 @@
         <v>63</v>
       </c>
       <c r="F89">
-        <f>E89-D89</f>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="I89" s="2"/>
@@ -20143,7 +20148,7 @@
         <v>62</v>
       </c>
       <c r="F90">
-        <f>E90-D90</f>
+        <f t="shared" si="2"/>
         <v>-11</v>
       </c>
       <c r="I90" s="2"/>
@@ -20165,7 +20170,7 @@
         <v>52</v>
       </c>
       <c r="F91">
-        <f>E91-D91</f>
+        <f t="shared" si="2"/>
         <v>-13</v>
       </c>
       <c r="I91" s="2"/>
@@ -20187,7 +20192,7 @@
         <v>68</v>
       </c>
       <c r="F92">
-        <f>E92-D92</f>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="I92" s="2"/>
@@ -20209,7 +20214,7 @@
         <v>110</v>
       </c>
       <c r="F93">
-        <f>E93-D93</f>
+        <f t="shared" si="2"/>
         <v>-14</v>
       </c>
       <c r="I93" s="2"/>
@@ -20231,7 +20236,7 @@
         <v>93</v>
       </c>
       <c r="F94">
-        <f>E94-D94</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I94" s="2"/>
@@ -20253,7 +20258,7 @@
         <v>135</v>
       </c>
       <c r="F95">
-        <f>E95-D95</f>
+        <f t="shared" si="2"/>
         <v>-23</v>
       </c>
       <c r="I95" s="2"/>
@@ -20275,7 +20280,7 @@
         <v>61</v>
       </c>
       <c r="F96">
-        <f>E96-D96</f>
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="I96" s="2"/>
@@ -20297,7 +20302,7 @@
         <v>78</v>
       </c>
       <c r="F97">
-        <f>E97-D97</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I97" s="2"/>
@@ -20319,7 +20324,7 @@
         <v>64</v>
       </c>
       <c r="F98">
-        <f>E98-D98</f>
+        <f t="shared" ref="F98:F129" si="3">E98-D98</f>
         <v>-11</v>
       </c>
       <c r="I98" s="2"/>
@@ -20341,7 +20346,7 @@
         <v>73</v>
       </c>
       <c r="F99">
-        <f>E99-D99</f>
+        <f t="shared" si="3"/>
         <v>-16</v>
       </c>
       <c r="I99" s="2"/>
@@ -20363,7 +20368,7 @@
         <v>138</v>
       </c>
       <c r="F100">
-        <f>E100-D100</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I100" s="2"/>
@@ -20385,7 +20390,7 @@
         <v>100</v>
       </c>
       <c r="F101">
-        <f>E101-D101</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="I101" s="2"/>
@@ -20407,7 +20412,7 @@
         <v>73</v>
       </c>
       <c r="F102">
-        <f>E102-D102</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I102" s="2"/>
@@ -20429,7 +20434,7 @@
         <v>134</v>
       </c>
       <c r="F103">
-        <f>E103-D103</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I103" s="2"/>
@@ -20451,7 +20456,7 @@
         <v>120</v>
       </c>
       <c r="F104">
-        <f>E104-D104</f>
+        <f t="shared" si="3"/>
         <v>-17</v>
       </c>
       <c r="I104" s="2"/>
@@ -26709,7 +26714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
